--- a/projects/Коваль/расписание.xlsx
+++ b/projects/Коваль/расписание.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,7 +58,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -207,12 +207,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -224,11 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -255,36 +274,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -664,606 +664,598 @@
   </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="52" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="13.5703125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="14.140625" customWidth="1" style="1" min="2" max="4"/>
-    <col width="27.85546875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="21.140625" customWidth="1" style="1" min="6" max="6"/>
-    <col width="17.42578125" customWidth="1" style="1" min="7" max="7"/>
-    <col width="27" customWidth="1" style="1" min="8" max="8"/>
-    <col width="26.5703125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="16.5703125" customWidth="1" style="1" min="10" max="10"/>
-    <col width="34.7109375" customWidth="1" style="1" min="11" max="11"/>
-    <col width="31.7109375" customWidth="1" style="1" min="12" max="12"/>
-    <col width="16.140625" customWidth="1" style="1" min="13" max="13"/>
-    <col width="13.7109375" customWidth="1" style="1" min="14" max="16"/>
-    <col width="8.85546875" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="13.5546875" customWidth="1" style="27" min="1" max="1"/>
+    <col width="14.109375" customWidth="1" style="27" min="2" max="4"/>
+    <col width="27.88671875" customWidth="1" style="27" min="5" max="5"/>
+    <col width="21.109375" customWidth="1" style="27" min="6" max="6"/>
+    <col width="17.44140625" customWidth="1" style="27" min="7" max="7"/>
+    <col width="27" customWidth="1" style="27" min="8" max="8"/>
+    <col width="26.5546875" customWidth="1" style="27" min="9" max="9"/>
+    <col width="16.5546875" customWidth="1" style="27" min="10" max="10"/>
+    <col width="34.77734375" customWidth="1" style="27" min="11" max="11"/>
+    <col width="31.6640625" customWidth="1" style="27" min="12" max="12"/>
+    <col width="16.109375" customWidth="1" style="27" min="13" max="13"/>
+    <col width="13.6640625" customWidth="1" style="27" min="14" max="16"/>
+    <col width="8.88671875" customWidth="1" style="27" min="17" max="21"/>
+    <col width="8.88671875" customWidth="1" style="27" min="22" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="15" customHeight="1" s="27" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Урок</t>
         </is>
       </c>
-      <c r="B1" s="25" t="inlineStr">
+      <c r="B1" s="30" t="inlineStr">
         <is>
           <t>Понедельник</t>
         </is>
       </c>
-      <c r="C1" s="25" t="n"/>
-      <c r="D1" s="25" t="n"/>
-      <c r="E1" s="25" t="inlineStr">
+      <c r="C1" s="19" t="n"/>
+      <c r="D1" s="19" t="n"/>
+      <c r="E1" s="29" t="inlineStr">
         <is>
           <t>Вторник</t>
         </is>
       </c>
-      <c r="F1" s="25" t="n"/>
-      <c r="G1" s="25" t="n"/>
-      <c r="H1" s="25" t="inlineStr">
+      <c r="F1" s="19" t="n"/>
+      <c r="G1" s="19" t="n"/>
+      <c r="H1" s="29" t="inlineStr">
         <is>
           <t>Среда</t>
         </is>
       </c>
-      <c r="I1" s="25" t="n"/>
-      <c r="J1" s="25" t="n"/>
-      <c r="K1" s="25" t="inlineStr">
+      <c r="I1" s="19" t="n"/>
+      <c r="J1" s="19" t="n"/>
+      <c r="K1" s="29" t="inlineStr">
         <is>
           <t>Четверг</t>
         </is>
       </c>
-      <c r="L1" s="25" t="n"/>
-      <c r="M1" s="25" t="n"/>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="L1" s="19" t="n"/>
+      <c r="M1" s="19" t="n"/>
+      <c r="N1" s="29" t="inlineStr">
         <is>
           <t>Пятница</t>
         </is>
       </c>
-      <c r="O1" s="25" t="n"/>
-      <c r="P1" s="25" t="n"/>
-    </row>
-    <row r="2" ht="14.45" customHeight="1" s="1">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="O1" s="19" t="n"/>
+      <c r="P1" s="19" t="n"/>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" s="27" thickBot="1">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>9:05 - 9:40</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="C2" s="25" t="n"/>
+      <c r="D2" s="26" t="n"/>
+      <c r="F2" s="21" t="n"/>
+      <c r="G2" s="21" t="n"/>
+      <c r="I2" s="21" t="n"/>
+      <c r="J2" s="21" t="n"/>
+      <c r="L2" s="21" t="n"/>
+      <c r="M2" s="21" t="n"/>
+      <c r="O2" s="25" t="n"/>
+      <c r="P2" s="26" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="27" thickBot="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>9:50 - 10:25</t>
+        </is>
+      </c>
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve"> главный</t>
         </is>
       </c>
-      <c r="C2" s="37" t="n"/>
-      <c r="D2" s="38" t="n"/>
-      <c r="E2" s="26" t="inlineStr">
+      <c r="D3" s="28" t="n"/>
+      <c r="E3" s="20" t="inlineStr">
         <is>
           <t>главный</t>
         </is>
       </c>
-      <c r="F2" s="27" t="n"/>
-      <c r="G2" s="27" t="n"/>
-      <c r="H2" s="26" t="inlineStr">
+      <c r="F3" s="23" t="n"/>
+      <c r="G3" s="23" t="n"/>
+      <c r="H3" s="20" t="inlineStr">
         <is>
           <t>главный</t>
         </is>
       </c>
-      <c r="I2" s="27" t="n"/>
-      <c r="J2" s="27" t="n"/>
-      <c r="K2" s="26" t="inlineStr">
+      <c r="I3" s="23" t="n"/>
+      <c r="J3" s="23" t="n"/>
+      <c r="K3" s="20" t="inlineStr">
         <is>
           <t>главный</t>
         </is>
       </c>
-      <c r="L2" s="27" t="n"/>
-      <c r="M2" s="27" t="n"/>
-      <c r="N2" s="36" t="inlineStr">
+      <c r="L3" s="23" t="n"/>
+      <c r="M3" s="23" t="n"/>
+      <c r="N3" s="24" t="inlineStr">
         <is>
           <t>главный</t>
         </is>
       </c>
-      <c r="O2" s="37" t="n"/>
-      <c r="P2" s="38" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="1" thickBot="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>9:50 - 10:25</t>
-        </is>
-      </c>
-      <c r="B3" s="39" t="n"/>
-      <c r="D3" s="40" t="n"/>
-      <c r="E3" s="28" t="n"/>
-      <c r="F3" s="29" t="n"/>
-      <c r="G3" s="29" t="n"/>
-      <c r="H3" s="28" t="n"/>
-      <c r="I3" s="29" t="n"/>
-      <c r="J3" s="29" t="n"/>
-      <c r="K3" s="28" t="n"/>
-      <c r="L3" s="29" t="n"/>
-      <c r="M3" s="29" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="P3" s="40" t="n"/>
-    </row>
-    <row r="4" ht="32.45" customHeight="1" s="1" thickBot="1">
-      <c r="A4" s="12" t="inlineStr">
+      <c r="P3" s="28" t="n"/>
+    </row>
+    <row r="4" ht="32.4" customHeight="1" s="27" thickBot="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>ДЗ</t>
         </is>
       </c>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="14" t="n"/>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="13" t="n"/>
-      <c r="F4" s="14" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="13" t="n"/>
-      <c r="I4" s="14" t="n"/>
-      <c r="J4" s="14" t="n"/>
-      <c r="K4" s="13" t="n"/>
-      <c r="L4" s="14" t="n"/>
-      <c r="M4" s="14" t="n"/>
-      <c r="N4" s="13" t="n"/>
-      <c r="O4" s="14" t="n"/>
-      <c r="P4" s="15" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="1">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="9" t="n"/>
+      <c r="D4" s="10" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="9" t="n"/>
+      <c r="G4" s="9" t="n"/>
+      <c r="H4" s="8" t="n"/>
+      <c r="I4" s="9" t="n"/>
+      <c r="J4" s="9" t="n"/>
+      <c r="K4" s="8" t="n"/>
+      <c r="L4" s="9" t="n"/>
+      <c r="M4" s="9" t="n"/>
+      <c r="N4" s="8" t="n"/>
+      <c r="O4" s="9" t="n"/>
+      <c r="P4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" s="27">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>10:35 - 11:15</t>
         </is>
       </c>
-      <c r="B5" s="28" t="inlineStr">
+      <c r="B5" s="22" t="inlineStr">
         <is>
           <t>русский язык</t>
         </is>
       </c>
-      <c r="C5" s="29" t="n"/>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="28" t="inlineStr">
+      <c r="C5" s="23" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="22" t="inlineStr">
         <is>
           <t>право</t>
         </is>
       </c>
-      <c r="F5" s="29" t="n"/>
-      <c r="G5" s="29" t="n"/>
-      <c r="H5" s="28" t="inlineStr">
+      <c r="F5" s="23" t="n"/>
+      <c r="G5" s="23" t="n"/>
+      <c r="H5" s="22" t="inlineStr">
         <is>
           <t>профиль (Биология)</t>
         </is>
       </c>
-      <c r="I5" s="29" t="inlineStr">
+      <c r="I5" s="23" t="inlineStr">
         <is>
           <t>профиль (Английский)</t>
         </is>
       </c>
-      <c r="J5" s="29" t="inlineStr">
+      <c r="J5" s="23" t="inlineStr">
         <is>
           <t>профиль (физика)</t>
         </is>
       </c>
-      <c r="K5" s="28" t="inlineStr">
+      <c r="K5" s="22" t="inlineStr">
         <is>
           <t>русский язык</t>
         </is>
       </c>
-      <c r="L5" s="29" t="n"/>
-      <c r="M5" s="29" t="n"/>
-      <c r="N5" s="28" t="inlineStr">
+      <c r="L5" s="23" t="n"/>
+      <c r="M5" s="23" t="n"/>
+      <c r="N5" s="22" t="inlineStr">
         <is>
           <t>физика</t>
         </is>
       </c>
-      <c r="O5" s="29" t="n"/>
-      <c r="P5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="40.9" customHeight="1" s="1" thickBot="1">
-      <c r="A6" s="16" t="inlineStr">
+      <c r="O5" s="23" t="n"/>
+      <c r="P5" s="5" t="n"/>
+    </row>
+    <row r="6" ht="40.8" customHeight="1" s="27" thickBot="1">
+      <c r="A6" s="11" t="inlineStr">
         <is>
           <t>ДЗ</t>
         </is>
       </c>
-      <c r="B6" s="17" t="n"/>
-      <c r="C6" s="18" t="n"/>
-      <c r="D6" s="19" t="n"/>
-      <c r="E6" s="17" t="n"/>
-      <c r="F6" s="18" t="n"/>
-      <c r="G6" s="18" t="n"/>
-      <c r="H6" s="17" t="n"/>
-      <c r="I6" s="18" t="n"/>
-      <c r="J6" s="18" t="n"/>
-      <c r="K6" s="17" t="n"/>
-      <c r="L6" s="18" t="n"/>
-      <c r="M6" s="18" t="n"/>
-      <c r="N6" s="17" t="n"/>
-      <c r="O6" s="18" t="n"/>
-      <c r="P6" s="19" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="1">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="B6" s="12" t="n"/>
+      <c r="C6" s="13" t="n"/>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="12" t="n"/>
+      <c r="F6" s="13" t="n"/>
+      <c r="G6" s="13" t="n"/>
+      <c r="H6" s="12" t="n"/>
+      <c r="I6" s="13" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="12" t="n"/>
+      <c r="L6" s="13" t="n"/>
+      <c r="M6" s="13" t="n"/>
+      <c r="N6" s="12" t="n"/>
+      <c r="O6" s="13" t="n"/>
+      <c r="P6" s="14" t="n"/>
+    </row>
+    <row r="7" ht="18" customHeight="1" s="27">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>11:40 - 12:20</t>
         </is>
       </c>
-      <c r="B7" s="26" t="inlineStr">
+      <c r="B7" s="20" t="inlineStr">
         <is>
           <t>экология</t>
         </is>
       </c>
-      <c r="C7" s="27" t="n"/>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="26" t="inlineStr">
+      <c r="C7" s="21" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="20" t="inlineStr">
         <is>
           <t>английския язык (Гальченко)</t>
         </is>
       </c>
-      <c r="F7" s="27" t="inlineStr">
+      <c r="F7" s="21" t="inlineStr">
         <is>
           <t>английский язык (Немчик)</t>
         </is>
       </c>
-      <c r="G7" s="27" t="n"/>
-      <c r="H7" s="26" t="inlineStr">
+      <c r="G7" s="21" t="n"/>
+      <c r="H7" s="20" t="inlineStr">
         <is>
           <t>химия</t>
         </is>
       </c>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="27" t="n"/>
-      <c r="K7" s="26" t="inlineStr">
+      <c r="I7" s="21" t="n"/>
+      <c r="J7" s="21" t="n"/>
+      <c r="K7" s="20" t="inlineStr">
         <is>
           <t>профиль (ИКТ)</t>
         </is>
       </c>
-      <c r="L7" s="27" t="inlineStr">
+      <c r="L7" s="21" t="inlineStr">
         <is>
           <t>профиль (право)</t>
         </is>
       </c>
-      <c r="M7" s="27" t="inlineStr">
+      <c r="M7" s="21" t="inlineStr">
         <is>
           <t>профиль (история)</t>
         </is>
       </c>
-      <c r="N7" s="26" t="inlineStr">
+      <c r="N7" s="20" t="inlineStr">
         <is>
           <t>астрономия</t>
         </is>
       </c>
-      <c r="O7" s="27" t="n"/>
-      <c r="P7" s="11" t="n"/>
-    </row>
-    <row r="8" ht="41.45" customHeight="1" s="1" thickBot="1">
-      <c r="A8" s="20" t="inlineStr">
+      <c r="O7" s="21" t="n"/>
+      <c r="P7" s="6" t="n"/>
+    </row>
+    <row r="8" ht="41.4" customHeight="1" s="27" thickBot="1">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>ДЗ</t>
         </is>
       </c>
-      <c r="B8" s="21" t="n"/>
-      <c r="C8" s="22" t="n"/>
-      <c r="D8" s="23" t="n"/>
-      <c r="E8" s="21" t="n"/>
-      <c r="F8" s="22" t="n"/>
-      <c r="G8" s="22" t="n"/>
-      <c r="H8" s="21" t="n"/>
-      <c r="I8" s="22" t="n"/>
-      <c r="J8" s="22" t="n"/>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="22" t="n"/>
-      <c r="M8" s="22" t="n"/>
-      <c r="N8" s="21" t="n"/>
-      <c r="O8" s="22" t="n"/>
-      <c r="P8" s="23" t="n"/>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" s="1">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="B8" s="16" t="n"/>
+      <c r="C8" s="17" t="n"/>
+      <c r="D8" s="18" t="n"/>
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="17" t="n"/>
+      <c r="G8" s="17" t="n"/>
+      <c r="H8" s="16" t="n"/>
+      <c r="I8" s="17" t="n"/>
+      <c r="J8" s="17" t="n"/>
+      <c r="K8" s="16" t="n"/>
+      <c r="L8" s="17" t="n"/>
+      <c r="M8" s="17" t="n"/>
+      <c r="N8" s="16" t="n"/>
+      <c r="O8" s="17" t="n"/>
+      <c r="P8" s="18" t="n"/>
+    </row>
+    <row r="9" ht="18" customHeight="1" s="27">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>12:35 - 13:15</t>
         </is>
       </c>
-      <c r="B9" s="26" t="inlineStr">
+      <c r="B9" s="20" t="inlineStr">
         <is>
           <t>право</t>
         </is>
       </c>
-      <c r="C9" s="27" t="n"/>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="26" t="inlineStr">
+      <c r="C9" s="21" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="20" t="inlineStr">
         <is>
           <t>физика</t>
         </is>
       </c>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
-      <c r="H9" s="26" t="inlineStr">
+      <c r="F9" s="21" t="n"/>
+      <c r="G9" s="21" t="n"/>
+      <c r="H9" s="20" t="inlineStr">
         <is>
           <t>литература</t>
         </is>
       </c>
-      <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="n"/>
-      <c r="K9" s="26" t="inlineStr">
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="20" t="inlineStr">
         <is>
           <t>английския язык (Гальченко)</t>
         </is>
       </c>
-      <c r="L9" s="27" t="inlineStr">
+      <c r="L9" s="21" t="inlineStr">
         <is>
           <t>английский язык (Немчик)</t>
         </is>
       </c>
-      <c r="M9" s="27" t="n"/>
-      <c r="N9" s="26" t="inlineStr">
+      <c r="M9" s="21" t="n"/>
+      <c r="N9" s="20" t="inlineStr">
         <is>
           <t>русский язык</t>
         </is>
       </c>
-      <c r="O9" s="27" t="n"/>
-      <c r="P9" s="11" t="n"/>
-    </row>
-    <row r="10" ht="37.15" customHeight="1" s="1" thickBot="1">
-      <c r="A10" s="16" t="inlineStr">
+      <c r="O9" s="21" t="n"/>
+      <c r="P9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="37.2" customHeight="1" s="27" thickBot="1">
+      <c r="A10" s="11" t="inlineStr">
         <is>
           <t>ДЗ</t>
         </is>
       </c>
-      <c r="B10" s="17" t="n"/>
-      <c r="C10" s="18" t="n"/>
-      <c r="D10" s="19" t="n"/>
-      <c r="E10" s="17" t="n"/>
-      <c r="F10" s="18" t="n"/>
-      <c r="G10" s="18" t="n"/>
-      <c r="H10" s="17" t="inlineStr">
-        <is>
-          <t>задание</t>
-        </is>
-      </c>
-      <c r="I10" s="18" t="n"/>
-      <c r="J10" s="18" t="n"/>
-      <c r="K10" s="17" t="n"/>
-      <c r="L10" s="18" t="n"/>
-      <c r="M10" s="18" t="n"/>
-      <c r="N10" s="17" t="n"/>
-      <c r="O10" s="18" t="n"/>
-      <c r="P10" s="19" t="n"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" s="1">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="B10" s="12" t="n"/>
+      <c r="C10" s="13" t="n"/>
+      <c r="D10" s="14" t="n"/>
+      <c r="E10" s="12" t="n"/>
+      <c r="F10" s="13" t="n"/>
+      <c r="G10" s="13" t="n"/>
+      <c r="H10" s="12" t="inlineStr">
+        <is>
+          <t>Прочитпть войну и мир</t>
+        </is>
+      </c>
+      <c r="I10" s="13" t="n"/>
+      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="12" t="n"/>
+      <c r="L10" s="13" t="n"/>
+      <c r="M10" s="13" t="n"/>
+      <c r="N10" s="12" t="n"/>
+      <c r="O10" s="13" t="n"/>
+      <c r="P10" s="14" t="n"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" s="27">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>13:45 - 14:25</t>
         </is>
       </c>
-      <c r="B11" s="26" t="inlineStr">
+      <c r="B11" s="20" t="inlineStr">
         <is>
           <t>искусство</t>
         </is>
       </c>
-      <c r="C11" s="27" t="n"/>
-      <c r="D11" s="11" t="n"/>
-      <c r="E11" s="26" t="inlineStr">
+      <c r="C11" s="21" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="20" t="inlineStr">
         <is>
           <t>профиль (Биология)</t>
         </is>
       </c>
-      <c r="F11" s="27" t="inlineStr">
+      <c r="F11" s="21" t="inlineStr">
         <is>
           <t>профиль (Английский)</t>
         </is>
       </c>
-      <c r="G11" s="27" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>профиль (физика)</t>
         </is>
       </c>
-      <c r="H11" s="26" t="inlineStr">
+      <c r="H11" s="20" t="inlineStr">
         <is>
           <t>профиль (литература)</t>
         </is>
       </c>
-      <c r="I11" s="27" t="inlineStr">
-        <is>
-          <t>профиль(Математика)</t>
-        </is>
-      </c>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="26" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
+        <is>
+          <t>математика (профиль)</t>
+        </is>
+      </c>
+      <c r="J11" s="21" t="n"/>
+      <c r="K11" s="20" t="inlineStr">
         <is>
           <t>английския язык (Гальченко)</t>
         </is>
       </c>
-      <c r="L11" s="27" t="inlineStr">
+      <c r="L11" s="21" t="inlineStr">
         <is>
           <t>английский язык (Немчик)</t>
         </is>
       </c>
-      <c r="M11" s="27" t="n"/>
-      <c r="N11" s="26" t="inlineStr">
+      <c r="M11" s="21" t="n"/>
+      <c r="N11" s="20" t="inlineStr">
         <is>
           <t>литература</t>
         </is>
       </c>
-      <c r="O11" s="27" t="n"/>
-      <c r="P11" s="11" t="n"/>
-    </row>
-    <row r="12" ht="34.15" customHeight="1" s="1" thickBot="1">
-      <c r="A12" s="16" t="inlineStr">
+      <c r="O11" s="21" t="n"/>
+      <c r="P11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="34.2" customHeight="1" s="27" thickBot="1">
+      <c r="A12" s="11" t="inlineStr">
         <is>
           <t>ДЗ</t>
         </is>
       </c>
-      <c r="B12" s="17" t="n"/>
-      <c r="C12" s="18" t="n"/>
-      <c r="D12" s="19" t="n"/>
-      <c r="E12" s="17" t="n"/>
-      <c r="F12" s="18" t="n"/>
-      <c r="G12" s="18" t="n"/>
-      <c r="H12" s="17" t="n"/>
-      <c r="I12" s="18" t="n"/>
-      <c r="J12" s="18" t="n"/>
-      <c r="K12" s="17" t="n"/>
-      <c r="L12" s="18" t="n"/>
-      <c r="M12" s="18" t="n"/>
-      <c r="N12" s="17" t="n"/>
-      <c r="O12" s="18" t="n"/>
-      <c r="P12" s="19" t="n"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" s="1">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="B12" s="12" t="n"/>
+      <c r="C12" s="13" t="n"/>
+      <c r="D12" s="14" t="n"/>
+      <c r="E12" s="12" t="n"/>
+      <c r="F12" s="13" t="n"/>
+      <c r="G12" s="13" t="n"/>
+      <c r="H12" s="12" t="n"/>
+      <c r="I12" s="13" t="n"/>
+      <c r="J12" s="13" t="n"/>
+      <c r="K12" s="12" t="n"/>
+      <c r="L12" s="13" t="n"/>
+      <c r="M12" s="13" t="n"/>
+      <c r="N12" s="12" t="n"/>
+      <c r="O12" s="13" t="n"/>
+      <c r="P12" s="14" t="n"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" s="27">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>14:40 - 15:20</t>
         </is>
       </c>
-      <c r="B13" s="26" t="inlineStr">
+      <c r="B13" s="20" t="inlineStr">
         <is>
           <t>МХК</t>
         </is>
       </c>
-      <c r="C13" s="27" t="n"/>
-      <c r="D13" s="11" t="n"/>
-      <c r="E13" s="26" t="inlineStr">
+      <c r="C13" s="21" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="20" t="inlineStr">
         <is>
           <t>профиль (ИКТ)</t>
         </is>
       </c>
-      <c r="F13" s="27" t="inlineStr">
+      <c r="F13" s="21" t="inlineStr">
         <is>
           <t>профиль (право)</t>
         </is>
       </c>
-      <c r="G13" s="27" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>профиль (история)</t>
         </is>
       </c>
-      <c r="H13" s="26" t="inlineStr">
+      <c r="H13" s="20" t="inlineStr">
         <is>
           <t>математика (база)</t>
         </is>
       </c>
-      <c r="I13" s="27" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
         <is>
           <t>математика (профиль)</t>
         </is>
       </c>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="26" t="inlineStr">
+      <c r="J13" s="21" t="n"/>
+      <c r="K13" s="20" t="inlineStr">
         <is>
           <t>профиль (литература)</t>
         </is>
       </c>
-      <c r="L13" s="27" t="inlineStr">
-        <is>
-          <t>профиль (математика)</t>
-        </is>
-      </c>
-      <c r="M13" s="27" t="n"/>
-      <c r="N13" s="26" t="inlineStr">
+      <c r="L13" s="21" t="inlineStr">
+        <is>
+          <t>математика (профиль)</t>
+        </is>
+      </c>
+      <c r="M13" s="21" t="n"/>
+      <c r="N13" s="20" t="inlineStr">
         <is>
           <t>классный час</t>
         </is>
       </c>
-      <c r="O13" s="27" t="n"/>
-      <c r="P13" s="11" t="n"/>
-    </row>
-    <row r="14" ht="42.6" customHeight="1" s="1" thickBot="1">
-      <c r="A14" s="20" t="inlineStr">
+      <c r="O13" s="21" t="n"/>
+      <c r="P13" s="6" t="n"/>
+    </row>
+    <row r="14" ht="42.6" customHeight="1" s="27" thickBot="1">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>ДЗ</t>
         </is>
       </c>
-      <c r="B14" s="21" t="n"/>
-      <c r="C14" s="22" t="n"/>
-      <c r="D14" s="23" t="n"/>
-      <c r="E14" s="21" t="n"/>
-      <c r="F14" s="22" t="n"/>
-      <c r="G14" s="22" t="n"/>
-      <c r="H14" s="21" t="n"/>
-      <c r="I14" s="22" t="n"/>
-      <c r="J14" s="22" t="n"/>
-      <c r="K14" s="21" t="n"/>
-      <c r="L14" s="22" t="n"/>
-      <c r="M14" s="22" t="n"/>
-      <c r="N14" s="21" t="n"/>
-      <c r="O14" s="22" t="n"/>
-      <c r="P14" s="23" t="n"/>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" s="1">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="B14" s="16" t="n"/>
+      <c r="C14" s="17" t="n"/>
+      <c r="D14" s="18" t="n"/>
+      <c r="E14" s="16" t="n"/>
+      <c r="F14" s="17" t="n"/>
+      <c r="G14" s="17" t="n"/>
+      <c r="H14" s="16" t="n"/>
+      <c r="I14" s="17" t="n"/>
+      <c r="J14" s="17" t="n"/>
+      <c r="K14" s="16" t="n"/>
+      <c r="L14" s="17" t="n"/>
+      <c r="M14" s="17" t="n"/>
+      <c r="N14" s="16" t="n"/>
+      <c r="O14" s="17" t="n"/>
+      <c r="P14" s="18" t="n"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" s="27">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>15:30 - 16:10</t>
         </is>
       </c>
-      <c r="B15" s="26" t="inlineStr">
+      <c r="B15" s="20" t="inlineStr">
         <is>
           <t>МХК</t>
         </is>
       </c>
-      <c r="C15" s="27" t="n"/>
-      <c r="D15" s="11" t="n"/>
-      <c r="E15" s="26" t="inlineStr">
+      <c r="C15" s="21" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="20" t="inlineStr">
         <is>
           <t>физкультура</t>
         </is>
       </c>
-      <c r="F15" s="27" t="n"/>
-      <c r="G15" s="27" t="n"/>
-      <c r="H15" s="26" t="inlineStr">
+      <c r="F15" s="21" t="n"/>
+      <c r="G15" s="21" t="n"/>
+      <c r="H15" s="20" t="inlineStr">
         <is>
           <t>математика (база)</t>
         </is>
       </c>
-      <c r="I15" s="27" t="inlineStr">
+      <c r="I15" s="21" t="inlineStr">
         <is>
           <t>математика (профиль)</t>
         </is>
       </c>
-      <c r="J15" s="27" t="n"/>
-      <c r="K15" s="26" t="inlineStr">
+      <c r="J15" s="21" t="n"/>
+      <c r="K15" s="20" t="inlineStr">
         <is>
           <t>физкультура</t>
         </is>
       </c>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
-      <c r="N15" s="26" t="inlineStr">
+      <c r="L15" s="21" t="n"/>
+      <c r="M15" s="21" t="n"/>
+      <c r="N15" s="20" t="inlineStr">
         <is>
           <t>искусство</t>
         </is>
       </c>
-      <c r="O15" s="27" t="n"/>
-      <c r="P15" s="11" t="n"/>
-    </row>
-    <row r="16" ht="45.6" customHeight="1" s="1" thickBot="1">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="O15" s="21" t="n"/>
+      <c r="P15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="45.6" customHeight="1" s="27" thickBot="1">
+      <c r="A16" s="11" t="inlineStr">
         <is>
           <t>ДЗ</t>
         </is>
       </c>
-      <c r="B16" s="17" t="n"/>
-      <c r="C16" s="18" t="n"/>
-      <c r="D16" s="19" t="n"/>
-      <c r="E16" s="17" t="n"/>
-      <c r="F16" s="18" t="n"/>
-      <c r="G16" s="18" t="n"/>
-      <c r="H16" s="17" t="n"/>
-      <c r="I16" s="18" t="n"/>
-      <c r="J16" s="18" t="n"/>
-      <c r="K16" s="17" t="n"/>
-      <c r="L16" s="18" t="n"/>
-      <c r="M16" s="18" t="n"/>
-      <c r="N16" s="17" t="n"/>
-      <c r="O16" s="18" t="n"/>
-      <c r="P16" s="19" t="n"/>
+      <c r="B16" s="12" t="n"/>
+      <c r="C16" s="13" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="12" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="13" t="n"/>
+      <c r="H16" s="12" t="n"/>
+      <c r="I16" s="13" t="n"/>
+      <c r="J16" s="13" t="n"/>
+      <c r="K16" s="12" t="n"/>
+      <c r="L16" s="13" t="n"/>
+      <c r="M16" s="13" t="n"/>
+      <c r="N16" s="12" t="n"/>
+      <c r="O16" s="13" t="n"/>
+      <c r="P16" s="14" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="B2:D3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
